--- a/flow.xlsx
+++ b/flow.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="0" windowWidth="25600" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="0" windowWidth="28200" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coffee1" sheetId="1" r:id="rId1"/>
-    <sheet name="Car" sheetId="2" r:id="rId2"/>
-    <sheet name="Music" sheetId="3" r:id="rId3"/>
-    <sheet name="Home" sheetId="4" r:id="rId4"/>
-    <sheet name="Meta" sheetId="5" r:id="rId5"/>
+    <sheet name="Coffee2" sheetId="6" r:id="rId2"/>
+    <sheet name="Coffee3" sheetId="7" r:id="rId3"/>
+    <sheet name="Food1" sheetId="8" r:id="rId4"/>
+    <sheet name="Car" sheetId="2" r:id="rId5"/>
+    <sheet name="Music" sheetId="3" r:id="rId6"/>
+    <sheet name="Home" sheetId="4" r:id="rId7"/>
+    <sheet name="Meta" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="209">
   <si>
     <t>Command</t>
   </si>
@@ -362,13 +365,301 @@
   </si>
   <si>
     <t>thermostat on</t>
+  </si>
+  <si>
+    <t>may I have a large hazelnut macchiato, sugar-free syrup, extra shot, light ice, no whip please and thank you</t>
+  </si>
+  <si>
+    <t>Sure! A large Iced hazelnut macchiato extra with no whip, sugar. Would you like to enhance this drink with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Okay, no problem! Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>No problem! Should I confirm just the drink then?</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with no whip and sugar. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Yes, please add sugar</t>
+  </si>
+  <si>
+    <t>Sounds good! I added sugar to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with sugar. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>yes, please add cream</t>
+  </si>
+  <si>
+    <t>Sounds good! I added cream to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>yes, I would like something from the bakery</t>
+  </si>
+  <si>
+    <t>Alright what else would you like to add to your coffee order?</t>
+  </si>
+  <si>
+    <t>muffins</t>
+  </si>
+  <si>
+    <t>Confirm your order for muffin?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large hazelnut macchiato with cream and muffin. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>yes, please add modifier</t>
+  </si>
+  <si>
+    <t>Alright! What would you like to add to your drink?</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>Sounds good! I added whole milk to your drink. Would you like to add a bakery item to your order?</t>
+  </si>
+  <si>
+    <t>sure, cookie</t>
+  </si>
+  <si>
+    <t>Alright, I added a cookie to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>soda</t>
+  </si>
+  <si>
+    <t>I understand your trying to order a beverage but that item is not available in the menu. Is there another drink you would like?</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>No problem! Let me know if you need anything else.</t>
+  </si>
+  <si>
+    <t>suggest please</t>
+  </si>
+  <si>
+    <t>Okay, canceling your order.</t>
+  </si>
+  <si>
+    <t>with would be nice</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>blended</t>
+  </si>
+  <si>
+    <t>Alright, how does a Caramel Frappuccino sound?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Alright! Would you like to pair your small Caramel frappuccino with a bakery item?</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>cinnamon roll"</t>
+  </si>
+  <si>
+    <t>Alright, I added a cinnamon roll to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>Alright, how does a London fog latte sound?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good </t>
+  </si>
+  <si>
+    <t>medium will be nice</t>
+  </si>
+  <si>
+    <t>yes, cake please</t>
+  </si>
+  <si>
+    <t>Alright, I added a cake to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>sure thing</t>
+  </si>
+  <si>
+    <t>can I get a large iced latte with no milk and muffins</t>
+  </si>
+  <si>
+    <t>Sure thing! Large latte and muffin coming up. Does this complete your order?</t>
+  </si>
+  <si>
+    <t>Can I get some coffee please</t>
+  </si>
+  <si>
+    <t>How about an iced mocha with no milk</t>
+  </si>
+  <si>
+    <t>Sure thing! So you said Iced mocha whole milk. What size would you like that to be?</t>
+  </si>
+  <si>
+    <t>Alright a small. Would you like to enhance your drink with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>sugar would be awesome actually</t>
+  </si>
+  <si>
+    <t>yes, confirm the order</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>I didn't get that. Would you like to add any bakery items to your order?</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>Alright, I added a bread to your order. Would you like to confirm your order?</t>
+  </si>
+  <si>
+    <t>yes, please confirm</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for small mocha with sugar and bread. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>muffin</t>
+  </si>
+  <si>
+    <t>What roast would you like: dark, medium, or light?</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>I understand you want dark roast. What size do you want?</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Okay, medium it is. Would you like to enhance your dark roast coffee with cream, sugar or another modifier?</t>
+  </si>
+  <si>
+    <t>No thanks</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for medium dark roast coffee. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>get coffee</t>
+  </si>
+  <si>
+    <t>medium roast with bread</t>
+  </si>
+  <si>
+    <t>Confirm your order for bread?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for bread. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>large roast with muffin</t>
+  </si>
+  <si>
+    <t>cinnamon rolls</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for muffin and cinnamon roll. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Confirm your order for cinnamon roll?</t>
+  </si>
+  <si>
+    <t>I am hungry</t>
+  </si>
+  <si>
+    <t>Great, I know a Midtown Cafe restaurant that has home delivery. What would you like today?</t>
+  </si>
+  <si>
+    <t>cheeseburger</t>
+  </si>
+  <si>
+    <t>I heard cheeseburger. What sides would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>fries</t>
+  </si>
+  <si>
+    <t>Ok, I added fries to your order. What drinks would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>Sure, I added soda to your order. Does this complete your order?</t>
+  </si>
+  <si>
+    <t>Alright what else would you like to add to your order?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, and 1 medium soda. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>can i have a double cheese burger with medium fries and a small coke</t>
+  </si>
+  <si>
+    <t>I heard 1 double cheeseburger, 1 medium fries, 1 small Coke. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>I heard 1 medium soda. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>small ice cream</t>
+  </si>
+  <si>
+    <t>I heard 1 small ice cream scoop. Would you like to complete your order?</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, 1 small Coke, 1 medium soda, and 1 small ice cream scoop. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for 1 cheeseburger, 1 medium fries, and 1 small Coke. It will be delivered to your home.</t>
+  </si>
+  <si>
+    <t>Awesome, now placing your order for large latte, muffin, and a muffin. It will be delivered to your home.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,8 +683,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +718,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -416,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -434,12 +761,147 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="20"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="148">
+    <cellStyle name="Bad" xfId="20" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -448,6 +910,71 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="19" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -456,6 +983,71 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,97 +1402,306 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -916,22 +1717,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -941,47 +1742,315 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="A5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -997,16 +2066,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1021,58 +2091,131 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
+      <c r="A5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
+      <c r="A6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1088,17 +2231,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="134.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1113,253 +2255,123 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
+      <c r="A2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
+      <c r="A3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
+      <c r="A4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
+      <c r="A8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
+      <c r="A9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
+      <c r="A10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
+      <c r="A12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
+      <c r="A13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
+      <c r="A14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
+      <c r="A15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +2387,480 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1398,10 +2880,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C2" t="s">
